--- a/teammatch3x2.xlsx
+++ b/teammatch3x2.xlsx
@@ -475,7 +475,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>For public domain. No rights reserved. Generated on Feb 11, 2026.</t>
+          <t>For public domain. No rights reserved. Generated on Feb 19, 2026.</t>
         </is>
       </c>
     </row>
@@ -534,12 +534,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Name 88</t>
+          <t>Name 62</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Name 20</t>
+          <t>Name 42</t>
         </is>
       </c>
       <c r="D8">
@@ -553,12 +553,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Name 47</t>
+          <t>Name 17</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Name 89</t>
+          <t>Name 88</t>
         </is>
       </c>
       <c r="D9">
@@ -572,12 +572,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Name 21</t>
+          <t>Name 29</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Name 25</t>
+          <t>Name 84</t>
         </is>
       </c>
       <c r="D10">
@@ -591,12 +591,12 @@
       </c>
       <c r="B11" s="5" t="inlineStr">
         <is>
-          <t>Name 86</t>
+          <t>Name 59</t>
         </is>
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>Name 39</t>
+          <t>Name 61</t>
         </is>
       </c>
       <c r="D11" s="5">
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24" s="12" t="n">
         <v>90</v>
@@ -3930,7 +3930,7 @@
     </row>
     <row r="25">
       <c r="B25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C25" s="12" t="n">
         <v>110</v>
@@ -3953,7 +3953,7 @@
     </row>
     <row r="26">
       <c r="B26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C26" s="12" t="n">
         <v>130</v>
@@ -3976,7 +3976,7 @@
     </row>
     <row r="27">
       <c r="B27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C27" s="12" t="n">
         <v>150</v>
@@ -3999,7 +3999,7 @@
     </row>
     <row r="28">
       <c r="B28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C28" s="12" t="n">
         <v>170</v>
@@ -4022,7 +4022,7 @@
     </row>
     <row r="29">
       <c r="B29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C29" s="12" t="n">
         <v>190</v>
@@ -4050,7 +4050,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C30" s="12" t="n">
         <v>110</v>
@@ -4073,7 +4073,7 @@
     </row>
     <row r="31">
       <c r="B31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C31" s="12" t="n">
         <v>140</v>
@@ -4096,7 +4096,7 @@
     </row>
     <row r="32">
       <c r="B32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C32" s="12" t="n">
         <v>170</v>
@@ -4119,7 +4119,7 @@
     </row>
     <row r="33">
       <c r="B33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C33" s="12" t="n">
         <v>200</v>
@@ -4142,7 +4142,7 @@
     </row>
     <row r="34">
       <c r="B34" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C34" s="12" t="n">
         <v>230</v>
@@ -4165,7 +4165,7 @@
     </row>
     <row r="35">
       <c r="B35" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C35" s="12" t="n">
         <v>260</v>
@@ -4193,7 +4193,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C36" s="12" t="n">
         <v>120</v>
@@ -4216,7 +4216,7 @@
     </row>
     <row r="37">
       <c r="B37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C37" s="12" t="n">
         <v>150</v>
@@ -4239,7 +4239,7 @@
     </row>
     <row r="38">
       <c r="B38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C38" s="12" t="n">
         <v>180</v>
@@ -4262,7 +4262,7 @@
     </row>
     <row r="39">
       <c r="B39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C39" s="12" t="n">
         <v>210</v>
@@ -4285,7 +4285,7 @@
     </row>
     <row r="40">
       <c r="B40" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C40" s="12" t="n">
         <v>240</v>
@@ -4308,7 +4308,7 @@
     </row>
     <row r="41">
       <c r="B41" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C41" s="12" t="n">
         <v>270</v>
@@ -4336,7 +4336,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C42" s="12" t="n">
         <v>110</v>
@@ -4359,7 +4359,7 @@
     </row>
     <row r="43">
       <c r="B43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C43" s="12" t="n">
         <v>130</v>
@@ -4382,7 +4382,7 @@
     </row>
     <row r="44">
       <c r="B44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C44" s="12" t="n">
         <v>150</v>
@@ -4405,7 +4405,7 @@
     </row>
     <row r="45">
       <c r="B45" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C45" s="12" t="n">
         <v>170</v>
@@ -4428,7 +4428,7 @@
     </row>
     <row r="46">
       <c r="B46" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C46" s="12" t="n">
         <v>190</v>
@@ -4456,7 +4456,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C47" s="12" t="n">
         <v>140</v>
@@ -4479,7 +4479,7 @@
     </row>
     <row r="48">
       <c r="B48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C48" s="12" t="n">
         <v>170</v>
@@ -4502,7 +4502,7 @@
     </row>
     <row r="49">
       <c r="B49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C49" s="12" t="n">
         <v>200</v>
@@ -4525,7 +4525,7 @@
     </row>
     <row r="50">
       <c r="B50" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C50" s="12" t="n">
         <v>230</v>
@@ -4548,7 +4548,7 @@
     </row>
     <row r="51">
       <c r="B51" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C51" s="12" t="n">
         <v>260</v>
@@ -4576,7 +4576,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C52" s="12" t="n">
         <v>400</v>
@@ -4599,7 +4599,7 @@
     </row>
     <row r="53">
       <c r="B53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C53" s="12" t="n">
         <v>430</v>
@@ -4622,7 +4622,7 @@
     </row>
     <row r="54">
       <c r="B54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C54" s="12" t="n">
         <v>460</v>
@@ -4645,7 +4645,7 @@
     </row>
     <row r="55">
       <c r="B55" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C55" s="12" t="n">
         <v>490</v>
@@ -4668,7 +4668,7 @@
     </row>
     <row r="56">
       <c r="B56" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C56" s="12" t="n">
         <v>520</v>
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C57" s="12" t="n">
         <v>130</v>
@@ -4719,7 +4719,7 @@
     </row>
     <row r="58">
       <c r="B58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C58" s="12" t="n">
         <v>150</v>
@@ -4742,7 +4742,7 @@
     </row>
     <row r="59">
       <c r="B59" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C59" s="12" t="n">
         <v>170</v>
@@ -4765,7 +4765,7 @@
     </row>
     <row r="60">
       <c r="B60" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C60" s="12" t="n">
         <v>190</v>
@@ -4793,7 +4793,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C61" s="12" t="n">
         <v>420</v>
@@ -4816,7 +4816,7 @@
     </row>
     <row r="62">
       <c r="B62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C62" s="12" t="n">
         <v>450</v>
@@ -4839,7 +4839,7 @@
     </row>
     <row r="63">
       <c r="B63" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C63" s="12" t="n">
         <v>480</v>
@@ -4862,7 +4862,7 @@
     </row>
     <row r="64">
       <c r="B64" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C64" s="12" t="n">
         <v>510</v>
@@ -4890,7 +4890,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C65" s="12" t="n">
         <v>430</v>
@@ -4913,7 +4913,7 @@
     </row>
     <row r="66">
       <c r="B66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C66" s="12" t="n">
         <v>460</v>
@@ -4936,7 +4936,7 @@
     </row>
     <row r="67">
       <c r="B67" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C67" s="12" t="n">
         <v>490</v>
@@ -4959,7 +4959,7 @@
     </row>
     <row r="68">
       <c r="B68" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C68" s="12" t="n">
         <v>520</v>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C69" s="12" t="n">
         <v>400</v>
@@ -5010,7 +5010,7 @@
     </row>
     <row r="70">
       <c r="B70" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C70" s="12" t="n">
         <v>420</v>
@@ -5033,7 +5033,7 @@
     </row>
     <row r="71">
       <c r="B71" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C71" s="12" t="n">
         <v>440</v>
@@ -5061,7 +5061,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C72" s="12" t="n">
         <v>450</v>
@@ -5084,7 +5084,7 @@
     </row>
     <row r="73">
       <c r="B73" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C73" s="12" t="n">
         <v>480</v>
@@ -5107,7 +5107,7 @@
     </row>
     <row r="74">
       <c r="B74" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C74" s="12" t="n">
         <v>510</v>
@@ -5135,7 +5135,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C75" s="12" t="n">
         <v>460</v>
@@ -5158,7 +5158,7 @@
     </row>
     <row r="76">
       <c r="B76" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C76" s="12" t="n">
         <v>490</v>
@@ -5181,7 +5181,7 @@
     </row>
     <row r="77">
       <c r="B77" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C77" s="12" t="n">
         <v>520</v>
@@ -5209,7 +5209,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C78" s="12" t="n">
         <v>920</v>
@@ -5232,7 +5232,7 @@
     </row>
     <row r="79">
       <c r="B79" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C79" s="12" t="n">
         <v>940</v>
@@ -5260,7 +5260,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C80" s="12" t="n">
         <v>980</v>
@@ -5283,7 +5283,7 @@
     </row>
     <row r="81">
       <c r="B81" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C81" s="12" t="n">
         <v>1010</v>
@@ -5311,7 +5311,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C82" s="12" t="n">
         <v>990</v>
@@ -5334,7 +5334,7 @@
     </row>
     <row r="83">
       <c r="B83" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C83" s="12" t="n">
         <v>1020</v>
@@ -5362,7 +5362,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C84" s="12" t="n">
         <v>1440</v>
@@ -5390,7 +5390,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C85" s="12" t="n">
         <v>1510</v>
@@ -5418,7 +5418,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C86" s="12" t="n">
         <v>1520</v>
